--- a/第一轮建模/计算费用.xlsx
+++ b/第一轮建模/计算费用.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>铁路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,22 @@
   </si>
   <si>
     <t>总费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,76 +379,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20</v>
       </c>
       <c r="B2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>202</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>195</v>
       </c>
       <c r="B3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>306</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>750</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>301</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>SUM(A2:A12)</f>
-        <v>521</v>
+        <v>215</v>
       </c>
       <c r="B14">
         <f>SUM(B2:B12)</f>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1856</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D2:D12)</f>
+        <v>2902</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E2:E12)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f>IF(A14&lt;=300,20,IF(A14&lt;=350,23,IF(A14&lt;=400,26,IF(A14&lt;=450,29,IF(A14&lt;=500,32,IF(A14&lt;=600,37,IF(A14&lt;=700,44,IF(A14&lt;=800,50,IF(A14&lt;=900,55,IF(A14&lt;=1000,60,60+5*(INT((A14-1001)/100)+1)))))))))))+B14*0.1</f>
-        <v>61.8</v>
+        <f>IF(A14=0,0,IF(A14&lt;=300,20,IF(A14&lt;=350,23,IF(A14&lt;=400,26,IF(A14&lt;=450,29,IF(A14&lt;=500,32,IF(A14&lt;=600,37,IF(A14&lt;=700,44,IF(A14&lt;=800,50,IF(A14&lt;=900,55,IF(A14&lt;=1000,60,60+5*(INT((A14-1001)/100)+1))))))))))))+B14*0.1</f>
+        <v>205.60000000000002</v>
+      </c>
+      <c r="D16">
+        <f>IF(D14=0,0,IF(D14&lt;=300,20,IF(D14&lt;=350,23,IF(D14&lt;=400,26,IF(D14&lt;=450,29,IF(D14&lt;=500,32,IF(D14&lt;=600,37,IF(D14&lt;=700,44,IF(D14&lt;=800,50,IF(D14&lt;=900,55,IF(D14&lt;=1000,60,60+5*(INT((D14-1001)/100)+1))))))))))))+E14*0.1</f>
+        <v>160.30000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
